--- a/project/database.xlsx
+++ b/project/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Users</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>certificate_id</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +655,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -667,7 +672,9 @@
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
